--- a/CraigL_Section2_HW.xlsx
+++ b/CraigL_Section2_HW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
@@ -754,7 +754,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -770,6 +769,7 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -777,7 +777,298 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="110">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1010,42 +1301,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1073,7 +1328,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[CraigL_Pivot_table.xlsx]Payments!PivotTable1</c:name>
+    <c:name>[CraigL_Section2_HW.xlsx]Payments!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1237,7 +1492,7 @@
             <c:numRef>
               <c:f>Payments!$B$5:$B$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>30270.25</c:v>
@@ -1347,7 +1602,7 @@
             <c:numRef>
               <c:f>Payments!$C$5:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
@@ -1452,7 +1707,7 @@
             <c:numRef>
               <c:f>Payments!$D$5:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-4</c:v>
@@ -1503,11 +1758,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216530944"/>
-        <c:axId val="184795712"/>
+        <c:axId val="150978560"/>
+        <c:axId val="190159040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216530944"/>
+        <c:axId val="150978560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +1805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184795712"/>
+        <c:crossAx val="190159040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1558,7 +1813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184795712"/>
+        <c:axId val="190159040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,7 +1837,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1610,7 +1865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216530944"/>
+        <c:crossAx val="150978560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1826,11 +2081,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="154263552"/>
-        <c:axId val="134293760"/>
+        <c:axId val="150981632"/>
+        <c:axId val="150265856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154263552"/>
+        <c:axId val="150981632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +2128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134293760"/>
+        <c:crossAx val="150265856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1881,7 +2136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134293760"/>
+        <c:axId val="150265856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,7 +2187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154263552"/>
+        <c:crossAx val="150981632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2243,12 +2498,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="154264064"/>
-        <c:axId val="134296064"/>
+        <c:axId val="152176128"/>
+        <c:axId val="150267584"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="154264064"/>
+        <c:axId val="152176128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,7 +2540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134296064"/>
+        <c:crossAx val="150267584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2293,7 +2548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134296064"/>
+        <c:axId val="150267584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154264064"/>
+        <c:crossAx val="152176128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2452,7 +2707,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45FA323-570F-4471-A091-4E2DCD673DBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A45FA323-570F-4471-A091-4E2DCD673DBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2748,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD18C67F-682C-48D1-ACE4-57A9735C02AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD18C67F-682C-48D1-ACE4-57A9735C02AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,7 +2786,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF56CA97-8A60-41D3-AE5F-B3CECF7598E0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF56CA97-8A60-41D3-AE5F-B3CECF7598E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5168,52 +5423,55 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
-  <formats count="12">
-    <format dxfId="24">
+  <formats count="13">
+    <format dxfId="96">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="95">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="94">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="93">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="90">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="89">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="88">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="87">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="4">
@@ -5270,18 +5528,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108" tableBorderDxfId="106">
   <autoFilter ref="A2:I210"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Document Date" dataDxfId="8"/>
-    <tableColumn id="2" name="Supplier" dataDxfId="7"/>
-    <tableColumn id="3" name="Reference" dataDxfId="6"/>
-    <tableColumn id="4" name="Description" dataDxfId="5"/>
-    <tableColumn id="5" name="Tax Inclusive Amount" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="6" name="Column1" dataDxfId="3"/>
-    <tableColumn id="7" name="Bank Code" dataDxfId="2"/>
-    <tableColumn id="8" name="Account Code" dataDxfId="1"/>
-    <tableColumn id="9" name="Payment Date" dataDxfId="0"/>
+    <tableColumn id="1" name="Document Date" dataDxfId="105"/>
+    <tableColumn id="2" name="Supplier" dataDxfId="104"/>
+    <tableColumn id="3" name="Reference" dataDxfId="103"/>
+    <tableColumn id="4" name="Description" dataDxfId="102"/>
+    <tableColumn id="5" name="Tax Inclusive Amount" dataDxfId="101" dataCellStyle="Comma"/>
+    <tableColumn id="6" name="Column1" dataDxfId="100"/>
+    <tableColumn id="7" name="Bank Code" dataDxfId="99"/>
+    <tableColumn id="8" name="Account Code" dataDxfId="98"/>
+    <tableColumn id="9" name="Payment Date" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5576,7 +5834,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11676,8 +11934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11685,7 +11943,7 @@
     <col min="1" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>133</v>
       </c>
@@ -11717,16 +11975,16 @@
       <c r="A5" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="35">
         <v>30270.25</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="35">
         <v>35</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="35">
         <v>-4</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="35">
         <v>30301.25</v>
       </c>
     </row>
@@ -11734,16 +11992,16 @@
       <c r="A6" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="35">
         <v>34624</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="35">
         <v>35</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="35">
         <v>5</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="35">
         <v>34664</v>
       </c>
     </row>
@@ -11751,16 +12009,16 @@
       <c r="A7" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="35">
         <v>27689</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="35">
         <v>-1965</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="35">
         <v>-10</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="35">
         <v>25714</v>
       </c>
     </row>
@@ -11768,16 +12026,16 @@
       <c r="A8" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="35">
         <v>30018</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="35">
         <v>35</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="35">
         <v>-13</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="35">
         <v>30040</v>
       </c>
     </row>
@@ -11785,16 +12043,16 @@
       <c r="A9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="35">
         <v>32381</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="35">
         <v>35</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="35">
         <v>6</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="35">
         <v>32422</v>
       </c>
     </row>
@@ -11802,16 +12060,16 @@
       <c r="A10" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="35">
         <v>39704</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="35">
         <v>35</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="35">
         <v>10</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="35">
         <v>39749</v>
       </c>
     </row>
@@ -11819,16 +12077,16 @@
       <c r="A11" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="35">
         <v>28548</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="35">
         <v>35</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="35">
         <v>-21</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="35">
         <v>28562</v>
       </c>
     </row>
@@ -11836,16 +12094,16 @@
       <c r="A12" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="35">
         <v>46295</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="35">
         <v>35</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="35">
         <v>28</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="35">
         <v>46358</v>
       </c>
     </row>
@@ -11853,16 +12111,16 @@
       <c r="A13" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="35">
         <v>47341</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="35">
         <v>35</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="35">
         <v>-10</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="35">
         <v>47366</v>
       </c>
     </row>
@@ -11870,16 +12128,16 @@
       <c r="A14" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="35">
         <v>38404.479999999996</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="35">
         <v>35</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="35">
         <v>18</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="35">
         <v>38457.479999999996</v>
       </c>
     </row>
@@ -11887,16 +12145,16 @@
       <c r="A15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="35">
         <v>28599</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="35">
         <v>35</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="35">
         <v>-6</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="35">
         <v>28628</v>
       </c>
     </row>
@@ -11904,16 +12162,16 @@
       <c r="A16" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="35">
         <v>37980</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="35">
         <v>35</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="35">
         <v>-4</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="35">
         <v>38011</v>
       </c>
     </row>
@@ -11921,16 +12179,16 @@
       <c r="A17" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="35">
         <v>421853.73</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="35">
         <v>-1580</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="35">
         <v>-1</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="35">
         <v>420272.73</v>
       </c>
     </row>
@@ -11959,254 +12217,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>12</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>85</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>11</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>72</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="23">
-        <v>13</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="C6" s="22">
+        <v>13</v>
+      </c>
+      <c r="D6" s="22">
         <v>60</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>12</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>95</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>14</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>88</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>12</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>99</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>11</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>75</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="25">
-        <v>13</v>
-      </c>
-      <c r="D11" s="25">
+      <c r="C11" s="24">
+        <v>13</v>
+      </c>
+      <c r="D11" s="24">
         <v>100</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="23">
-        <v>13</v>
-      </c>
-      <c r="D12" s="23">
+      <c r="C12" s="22">
+        <v>13</v>
+      </c>
+      <c r="D12" s="22">
         <v>75</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>15</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <v>85</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>11</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>85</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24">
         <f>MIN(C4:C14)</f>
         <v>11</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <f>MIN(D4:D14)</f>
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22">
         <f>MAX(C4:C14)</f>
         <v>15</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <f>MAX(D4:D14)</f>
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="27">
+      <c r="B18" s="24"/>
+      <c r="C18" s="26">
         <f>AVERAGE(C4:C14)</f>
         <v>12.454545454545455</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <f>AVERAGE(D4:D14)</f>
         <v>83.545454545454547</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22">
         <f>_xlfn.MODE.SNGL(C4:C14)</f>
         <v>12</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <f>_xlfn.MODE.SNGL(D4:D14)</f>
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24">
         <f>MEDIAN(C4:C14)</f>
         <v>12</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <f>MEDIAN(D4:D14)</f>
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22">
         <f>COUNTA(B4:B14)</f>
         <v>11</v>
       </c>
@@ -12221,7 +12479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -12237,159 +12495,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>2000</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>0.21</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>3</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <f>(B4*C4)</f>
         <v>420</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <f>(B4+E4)</f>
         <v>2420</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <f>(F4/D4)</f>
         <v>806.66666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>450</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="34">
         <v>0.25</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>3</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <f>(B5*C5)</f>
         <v>112.5</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <f>(B5+E5)</f>
         <v>562.5</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <f>(F5/D5)</f>
         <v>187.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>975</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>0.27</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>3</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <f>(B6*C6)</f>
         <v>263.25</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <f>(B6+E6)</f>
         <v>1238.25</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <f>(F6/D6)</f>
         <v>412.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>1500</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>0.15</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>3</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <f>(B7*C7)</f>
         <v>225</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <f>(B7+E7)</f>
         <v>1725</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <f>(F7/D7)</f>
         <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>780</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>0.25</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>3</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <f>(B8*C8)</f>
         <v>195</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <f>(B8+E8)</f>
         <v>975</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <f>(F8/D8)</f>
         <v>325</v>
       </c>

--- a/CraigL_Section2_HW.xlsx
+++ b/CraigL_Section2_HW.xlsx
@@ -777,7 +777,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="110">
+  <dxfs count="54">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -818,40 +821,10 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -890,148 +863,7 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1758,11 +1590,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150978560"/>
-        <c:axId val="190159040"/>
+        <c:axId val="219533824"/>
+        <c:axId val="219088000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150978560"/>
+        <c:axId val="219533824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,7 +1637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190159040"/>
+        <c:crossAx val="219088000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1813,7 +1645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190159040"/>
+        <c:axId val="219088000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,7 +1697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150978560"/>
+        <c:crossAx val="219533824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1957,7 +1789,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2081,11 +1912,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="150981632"/>
-        <c:axId val="150265856"/>
+        <c:axId val="219536896"/>
+        <c:axId val="219089728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150981632"/>
+        <c:axId val="219536896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,7 +1959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150265856"/>
+        <c:crossAx val="219089728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2136,7 +1967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150265856"/>
+        <c:axId val="219089728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150981632"/>
+        <c:crossAx val="219536896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2276,7 +2107,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2498,12 +2328,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="152176128"/>
-        <c:axId val="150267584"/>
+        <c:axId val="220530176"/>
+        <c:axId val="219091456"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="152176128"/>
+        <c:axId val="220530176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2540,7 +2370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150267584"/>
+        <c:crossAx val="219091456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2548,7 +2378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150267584"/>
+        <c:axId val="219091456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,7 +2429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152176128"/>
+        <c:crossAx val="220530176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2613,7 +2443,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2707,7 +2536,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A45FA323-570F-4471-A091-4E2DCD673DBE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45FA323-570F-4471-A091-4E2DCD673DBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2577,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD18C67F-682C-48D1-ACE4-57A9735C02AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD18C67F-682C-48D1-ACE4-57A9735C02AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +2615,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF56CA97-8A60-41D3-AE5F-B3CECF7598E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF56CA97-8A60-41D3-AE5F-B3CECF7598E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5426,51 +5255,51 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="96">
+    <format dxfId="40">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="39">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="38">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="37">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="34">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="33">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="32">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="31">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5528,18 +5357,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108" tableBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50">
   <autoFilter ref="A2:I210"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Document Date" dataDxfId="105"/>
-    <tableColumn id="2" name="Supplier" dataDxfId="104"/>
-    <tableColumn id="3" name="Reference" dataDxfId="103"/>
-    <tableColumn id="4" name="Description" dataDxfId="102"/>
-    <tableColumn id="5" name="Tax Inclusive Amount" dataDxfId="101" dataCellStyle="Comma"/>
-    <tableColumn id="6" name="Column1" dataDxfId="100"/>
-    <tableColumn id="7" name="Bank Code" dataDxfId="99"/>
-    <tableColumn id="8" name="Account Code" dataDxfId="98"/>
-    <tableColumn id="9" name="Payment Date" dataDxfId="97"/>
+    <tableColumn id="1" name="Document Date" dataDxfId="49"/>
+    <tableColumn id="2" name="Supplier" dataDxfId="48"/>
+    <tableColumn id="3" name="Reference" dataDxfId="47"/>
+    <tableColumn id="4" name="Description" dataDxfId="46"/>
+    <tableColumn id="5" name="Tax Inclusive Amount" dataDxfId="45" dataCellStyle="Comma"/>
+    <tableColumn id="6" name="Column1" dataDxfId="44"/>
+    <tableColumn id="7" name="Bank Code" dataDxfId="43"/>
+    <tableColumn id="8" name="Account Code" dataDxfId="42"/>
+    <tableColumn id="9" name="Payment Date" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5834,7 +5663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11935,7 +11764,7 @@
   <dimension ref="A3:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CraigL_Section2_HW.xlsx
+++ b/CraigL_Section2_HW.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="172">
   <si>
     <t>Expenses</t>
   </si>
@@ -428,36 +428,6 @@
   </si>
   <si>
     <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
   </si>
   <si>
     <t>COUNT</t>
@@ -777,11 +747,83 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="234">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -824,6 +866,42 @@
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -861,6 +939,438 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1278,89 +1788,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Payments!$A$5:$A$17</c:f>
+              <c:f>Payments!$A$5:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Feb</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$B$5:$B$17</c:f>
+              <c:f>Payments!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>30270.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>34624</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30018</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32381</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39704</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28548</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46295</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47341</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38404.479999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28599</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,88 +1838,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Payments!$A$5:$A$17</c:f>
+              <c:f>Payments!$A$5:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Feb</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$C$5:$C$17</c:f>
+              <c:f>Payments!$C$5:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1965</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -1493,89 +1883,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Payments!$A$5:$A$17</c:f>
+              <c:f>Payments!$A$5:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Feb</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$D$5:$D$17</c:f>
+              <c:f>Payments!$D$5:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,11 +1920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="219533824"/>
-        <c:axId val="219088000"/>
+        <c:axId val="230248960"/>
+        <c:axId val="229770368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="219533824"/>
+        <c:axId val="230248960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,7 +1967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219088000"/>
+        <c:crossAx val="229770368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1645,7 +1975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219088000"/>
+        <c:axId val="229770368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +2027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219533824"/>
+        <c:crossAx val="230248960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1912,11 +2242,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="219536896"/>
-        <c:axId val="219089728"/>
+        <c:axId val="230252032"/>
+        <c:axId val="229772096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="219536896"/>
+        <c:axId val="230252032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,7 +2289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219089728"/>
+        <c:crossAx val="229772096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1967,7 +2297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219089728"/>
+        <c:axId val="229772096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +2348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219536896"/>
+        <c:crossAx val="230252032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2328,12 +2658,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="220530176"/>
-        <c:axId val="219091456"/>
+        <c:axId val="231273984"/>
+        <c:axId val="229773824"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="220530176"/>
+        <c:axId val="231273984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,7 +2700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219091456"/>
+        <c:crossAx val="229773824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2378,7 +2708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219091456"/>
+        <c:axId val="229773824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,7 +2759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220530176"/>
+        <c:crossAx val="231273984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2536,7 +2866,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45FA323-570F-4471-A091-4E2DCD673DBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A45FA323-570F-4471-A091-4E2DCD673DBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2907,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD18C67F-682C-48D1-ACE4-57A9735C02AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD18C67F-682C-48D1-ACE4-57A9735C02AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2945,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF56CA97-8A60-41D3-AE5F-B3CECF7598E0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF56CA97-8A60-41D3-AE5F-B3CECF7598E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5133,7 +5463,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -5152,7 +5482,7 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="15">
-        <item h="1" x="0"/>
+        <item sd="0" x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -5182,10 +5512,10 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="5">
-        <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
         <item sd="0" x="2"/>
-        <item h="1" sd="0" x="3"/>
+        <item sd="0" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5193,42 +5523,12 @@
   <rowFields count="1">
     <field x="8"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="3">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -5255,51 +5555,51 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="40">
+    <format dxfId="182">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="183">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="184">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="185">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="186">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="187">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="188">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="189">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="190">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="191">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="192">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="193">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="194">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5345,6 +5645,17 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="8" type="dateNewerThan" evalOrder="-1" id="1">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThan" val="40909"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5357,18 +5668,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="233" dataDxfId="231" headerRowBorderDxfId="232" tableBorderDxfId="230">
   <autoFilter ref="A2:I210"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Document Date" dataDxfId="49"/>
-    <tableColumn id="2" name="Supplier" dataDxfId="48"/>
-    <tableColumn id="3" name="Reference" dataDxfId="47"/>
-    <tableColumn id="4" name="Description" dataDxfId="46"/>
-    <tableColumn id="5" name="Tax Inclusive Amount" dataDxfId="45" dataCellStyle="Comma"/>
-    <tableColumn id="6" name="Column1" dataDxfId="44"/>
-    <tableColumn id="7" name="Bank Code" dataDxfId="43"/>
-    <tableColumn id="8" name="Account Code" dataDxfId="42"/>
-    <tableColumn id="9" name="Payment Date" dataDxfId="41"/>
+    <tableColumn id="1" name="Document Date" dataDxfId="229"/>
+    <tableColumn id="2" name="Supplier" dataDxfId="228"/>
+    <tableColumn id="3" name="Reference" dataDxfId="227"/>
+    <tableColumn id="4" name="Description" dataDxfId="226"/>
+    <tableColumn id="5" name="Tax Inclusive Amount" dataDxfId="225" dataCellStyle="Comma"/>
+    <tableColumn id="6" name="Column1" dataDxfId="224"/>
+    <tableColumn id="7" name="Bank Code" dataDxfId="223"/>
+    <tableColumn id="8" name="Account Code" dataDxfId="222"/>
+    <tableColumn id="9" name="Payment Date" dataDxfId="221"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5663,7 +5974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11761,15 +12072,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E17"/>
+  <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11836,189 +12151,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B7" s="35">
-        <v>27689</v>
+        <v>64894.25</v>
       </c>
       <c r="C7" s="35">
-        <v>-1965</v>
+        <v>70</v>
       </c>
       <c r="D7" s="35">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="E7" s="35">
-        <v>25714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="35">
-        <v>30018</v>
-      </c>
-      <c r="C8" s="35">
-        <v>35</v>
-      </c>
-      <c r="D8" s="35">
-        <v>-13</v>
-      </c>
-      <c r="E8" s="35">
-        <v>30040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="35">
-        <v>32381</v>
-      </c>
-      <c r="C9" s="35">
-        <v>35</v>
-      </c>
-      <c r="D9" s="35">
-        <v>6</v>
-      </c>
-      <c r="E9" s="35">
-        <v>32422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="35">
-        <v>39704</v>
-      </c>
-      <c r="C10" s="35">
-        <v>35</v>
-      </c>
-      <c r="D10" s="35">
-        <v>10</v>
-      </c>
-      <c r="E10" s="35">
-        <v>39749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="35">
-        <v>28548</v>
-      </c>
-      <c r="C11" s="35">
-        <v>35</v>
-      </c>
-      <c r="D11" s="35">
-        <v>-21</v>
-      </c>
-      <c r="E11" s="35">
-        <v>28562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="35">
-        <v>46295</v>
-      </c>
-      <c r="C12" s="35">
-        <v>35</v>
-      </c>
-      <c r="D12" s="35">
-        <v>28</v>
-      </c>
-      <c r="E12" s="35">
-        <v>46358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="35">
-        <v>47341</v>
-      </c>
-      <c r="C13" s="35">
-        <v>35</v>
-      </c>
-      <c r="D13" s="35">
-        <v>-10</v>
-      </c>
-      <c r="E13" s="35">
-        <v>47366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="35">
-        <v>38404.479999999996</v>
-      </c>
-      <c r="C14" s="35">
-        <v>35</v>
-      </c>
-      <c r="D14" s="35">
-        <v>18</v>
-      </c>
-      <c r="E14" s="35">
-        <v>38457.479999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="35">
-        <v>28599</v>
-      </c>
-      <c r="C15" s="35">
-        <v>35</v>
-      </c>
-      <c r="D15" s="35">
-        <v>-6</v>
-      </c>
-      <c r="E15" s="35">
-        <v>28628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="35">
-        <v>37980</v>
-      </c>
-      <c r="C16" s="35">
-        <v>35</v>
-      </c>
-      <c r="D16" s="35">
-        <v>-4</v>
-      </c>
-      <c r="E16" s="35">
-        <v>38011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="35">
-        <v>421853.73</v>
-      </c>
-      <c r="C17" s="35">
-        <v>-1580</v>
-      </c>
-      <c r="D17" s="35">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="35">
-        <v>420272.73</v>
+        <v>64965.25</v>
       </c>
     </row>
   </sheetData>
@@ -12047,26 +12192,26 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C4" s="22">
         <v>12</v>
@@ -12075,12 +12220,12 @@
         <v>85</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C5" s="24">
         <v>11</v>
@@ -12089,12 +12234,12 @@
         <v>72</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C6" s="22">
         <v>13</v>
@@ -12103,12 +12248,12 @@
         <v>60</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C7" s="24">
         <v>12</v>
@@ -12117,12 +12262,12 @@
         <v>95</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C8" s="22">
         <v>14</v>
@@ -12131,12 +12276,12 @@
         <v>88</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C9" s="24">
         <v>12</v>
@@ -12145,12 +12290,12 @@
         <v>99</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C10" s="22">
         <v>11</v>
@@ -12159,12 +12304,12 @@
         <v>75</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C11" s="24">
         <v>13</v>
@@ -12173,12 +12318,12 @@
         <v>100</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C12" s="22">
         <v>13</v>
@@ -12187,12 +12332,12 @@
         <v>75</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C13" s="24">
         <v>15</v>
@@ -12201,12 +12346,12 @@
         <v>85</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C14" s="22">
         <v>11</v>
@@ -12215,12 +12360,12 @@
         <v>85</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24">
@@ -12234,7 +12379,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22">
@@ -12248,7 +12393,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="26">
@@ -12262,7 +12407,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22">
@@ -12276,7 +12421,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24">
@@ -12290,7 +12435,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22">
@@ -12325,35 +12470,35 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B4" s="29">
         <v>2000</v>
@@ -12379,7 +12524,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B5" s="32">
         <v>450</v>
@@ -12405,7 +12550,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B6" s="29">
         <v>975</v>
@@ -12431,7 +12576,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B7" s="32">
         <v>1500</v>
@@ -12457,7 +12602,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B8" s="29">
         <v>780</v>
